--- a/PythonResources/Data/Consumption/Sympheny/base_1676_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1676_hea.xlsx
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43.20980779815143</v>
+        <v>43.20980779815142</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>43.44162698973256</v>
+        <v>43.44162698973255</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>40.40951402374228</v>
+        <v>40.40951402374227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>6.293847090771721</v>
+        <v>6.29384709077172</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>7.403531271559039</v>
+        <v>7.403531271559038</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>51.25021174382544</v>
+        <v>51.25021174382543</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>62.54370421864038</v>
+        <v>62.54370421864037</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>54.34299041481862</v>
+        <v>54.34299041481861</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>34.05075169790707</v>
+        <v>34.05075169790706</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>42.81973024569318</v>
+        <v>42.81973024569317</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>47.72925628534804</v>
+        <v>47.72925628534803</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>50.90380177612773</v>
+        <v>50.90380177612772</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>60.39607964733004</v>
+        <v>60.39607964733003</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>57.65000401507324</v>
+        <v>57.65000401507323</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>55.38749559660765</v>
+        <v>55.38749559660764</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>39.5382138258021</v>
+        <v>39.53821382580209</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>41.62487962107088</v>
+        <v>41.62487962107087</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>31.19301599992029</v>
+        <v>31.19301599992028</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>46.42714166057568</v>
+        <v>46.42714166057567</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>40.82010654890682</v>
+        <v>40.82010654890681</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>44.445102226109</v>
+        <v>44.44510222610899</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>37.76513404190096</v>
+        <v>37.76513404190095</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>37.0544367731472</v>
+        <v>37.05443677314719</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>54.99771111518806</v>
+        <v>54.99771111518805</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>59.79499094703562</v>
+        <v>59.79499094703561</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>65.82170378606753</v>
+        <v>65.82170378606752</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>63.37192297389734</v>
+        <v>63.37192297389733</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>62.30690281940201</v>
+        <v>62.306902819402</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>69.56861701535283</v>
+        <v>69.56861701535281</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>70.43757264498372</v>
+        <v>70.4375726449837</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>58.1514485622228</v>
+        <v>58.15144856222279</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>56.52900729219359</v>
+        <v>56.52900729219358</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>70.81709964005016</v>
+        <v>70.81709964005015</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>76.45285571350783</v>
+        <v>76.45285571350782</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>89.87902613666138</v>
+        <v>89.87902613666137</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>90.24331343771745</v>
+        <v>90.24331343771742</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>74.87789195174176</v>
+        <v>74.87789195174174</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>92.94425613002041</v>
+        <v>92.94425613002038</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>76.7025522384473</v>
+        <v>76.70255223844728</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>73.1610818072636</v>
+        <v>73.16108180726359</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>73.09015861590755</v>
+        <v>73.09015861590754</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>66.90929041053978</v>
+        <v>66.90929041053977</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>71.3270432473209</v>
+        <v>71.32704324732089</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>56.07797096369378</v>
+        <v>56.07797096369377</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>62.22044686299692</v>
+        <v>62.22044686299691</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>69.24535965970937</v>
+        <v>69.24535965970935</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>80.03008081140821</v>
+        <v>80.0300808114082</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>80.12943189351441</v>
+        <v>80.12943189351439</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>71.22769216521471</v>
+        <v>71.22769216521469</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>84.47508925478483</v>
+        <v>84.47508925478482</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>91.0911679525647</v>
+        <v>91.09116795256467</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>78.39884741021916</v>
+        <v>78.39884741021915</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>81.89196112002374</v>
+        <v>81.89196112002372</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>82.3986809458692</v>
+        <v>82.39868094586919</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>99.80475607404382</v>
+        <v>99.80475607404379</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>88.0364885165975</v>
+        <v>88.03648851659749</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>85.83816265559875</v>
+        <v>85.83816265559874</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>96.79784721737842</v>
+        <v>96.7978472173784</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>71.07998436172939</v>
+        <v>71.07998436172937</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>64.80504035295132</v>
+        <v>64.80504035295131</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>81.52034704300115</v>
+        <v>81.52034704300114</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>66.03505950221299</v>
+        <v>66.03505950221297</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>62.85435951962141</v>
+        <v>62.8543595196214</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>54.85733008766928</v>
+        <v>54.85733008766927</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>49.25000190496176</v>
+        <v>49.25000190496175</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>68.97251052271565</v>
+        <v>68.97251052271564</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>83.90477301354986</v>
+        <v>83.90477301354984</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>102.3064104600571</v>
+        <v>102.306410460057</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>88.98222875835766</v>
+        <v>88.98222875835765</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>66.4913711094087</v>
+        <v>66.49137110940869</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>63.702800176546</v>
+        <v>63.70280017654599</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>64.19838330292234</v>
+        <v>64.19838330292232</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>63.36899226351073</v>
+        <v>63.36899226351072</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>57.5858214576064</v>
+        <v>57.58582145760639</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>76.05750288235367</v>
+        <v>76.05750288235366</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>77.29602109173652</v>
+        <v>77.29602109173651</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>78.41936238292546</v>
+        <v>78.41936238292544</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>733</v>
       </c>
       <c r="B733">
-        <v>59.85067444438128</v>
+        <v>59.85067444438127</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>73.10217452849267</v>
+        <v>73.10217452849265</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>82.64105069484214</v>
+        <v>82.64105069484212</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>51.01839255224432</v>
+        <v>51.01839255224431</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>62.49769206557055</v>
+        <v>62.49769206557054</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>70.41705767227742</v>
+        <v>70.41705767227741</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>68.71812486115761</v>
+        <v>68.71812486115759</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>61.79227007551269</v>
+        <v>61.79227007551268</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>59.1628367166431</v>
+        <v>59.16283671664309</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>57.49438329354406</v>
+        <v>57.49438329354405</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>77.38277011918028</v>
+        <v>77.38277011918026</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>84.7505760311265</v>
+        <v>84.75057603112649</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>85.10226127752011</v>
+        <v>85.1022612775201</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>89.57305997229894</v>
+        <v>89.57305997229892</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>84.29426442393078</v>
+        <v>84.29426442393077</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>77.50263617399277</v>
+        <v>77.50263617399276</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>81.65017751312813</v>
+        <v>81.65017751312811</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>82.4502614486736</v>
+        <v>82.45026144867359</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>90.0009436887445</v>
+        <v>90.00094368874448</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>90.50092288070076</v>
+        <v>90.50092288070074</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>95.26186190375432</v>
+        <v>95.26186190375429</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>87.56024807877282</v>
+        <v>87.5602480787728</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>72.77159039688267</v>
+        <v>72.77159039688266</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>95.64461268024604</v>
+        <v>95.644612680246</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>83.24184632409789</v>
+        <v>83.24184632409788</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>94.7577797172568</v>
+        <v>94.75777971725678</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>70.0533565132987</v>
+        <v>70.05335651329868</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>59.67746946053242</v>
+        <v>59.67746946053241</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>56.02697660296671</v>
+        <v>56.0269766029667</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>45.97141619545729</v>
+        <v>45.97141619545728</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>67.76242020408296</v>
+        <v>67.76242020408294</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>80.06524933604757</v>
+        <v>80.06524933604756</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>85.47182385727207</v>
+        <v>85.47182385727206</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>85.28044846902621</v>
+        <v>85.2804484690262</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>64.87127440768879</v>
+        <v>64.87127440768877</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>46.71523049157978</v>
+        <v>46.71523049157977</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>47.21726118080667</v>
+        <v>47.21726118080666</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>38.44300735432465</v>
+        <v>38.44300735432464</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>40.92180219932231</v>
+        <v>40.9218021993223</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>41.31422432008985</v>
+        <v>41.31422432008984</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>39.79054799008952</v>
+        <v>39.79054799008951</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>58.51573586327885</v>
+        <v>58.51573586327884</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>59.17602491338286</v>
+        <v>59.17602491338285</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>61.75915304814396</v>
+        <v>61.75915304814395</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>61.75944611918262</v>
+        <v>61.75944611918261</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>57.08144620007023</v>
+        <v>57.08144620007022</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>63.93960157578437</v>
+        <v>63.93960157578436</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>77.64770633813013</v>
+        <v>77.64770633813012</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>45.50748474125638</v>
+        <v>45.50748474125637</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>43.57116438882087</v>
+        <v>43.57116438882086</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>38.95265789055673</v>
+        <v>38.95265789055672</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>44.64116675097344</v>
+        <v>44.64116675097343</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>1081</v>
       </c>
       <c r="B1081">
-        <v>47.95345562992397</v>
+        <v>47.95345562992396</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>47.03086800021805</v>
+        <v>47.03086800021804</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>48.03756701801977</v>
+        <v>48.03756701801976</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>48.2435959581987</v>
+        <v>48.24359595819869</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>58.55647273765278</v>
+        <v>58.55647273765277</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>1093</v>
       </c>
       <c r="B1093">
-        <v>49.92289300972821</v>
+        <v>49.9228930097282</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>45.96115870910414</v>
+        <v>45.96115870910413</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>54.19264497198535</v>
+        <v>54.19264497198534</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>55.30836641616909</v>
+        <v>55.30836641616908</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>61.26972441357951</v>
+        <v>61.2697244135795</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>61.0355606536891</v>
+        <v>61.03556065368909</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>63.21630225236817</v>
+        <v>63.21630225236816</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>74.28442309845254</v>
+        <v>74.28442309845252</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>83.74915229202068</v>
+        <v>83.74915229202067</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>1142</v>
       </c>
       <c r="B1142">
-        <v>71.52310777218534</v>
+        <v>71.52310777218533</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>54.88018962868486</v>
+        <v>54.88018962868485</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>60.10535317697799</v>
+        <v>60.10535317697798</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>62.18996747497614</v>
+        <v>62.18996747497613</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>63.40210929087946</v>
+        <v>63.40210929087945</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>56.95161572994325</v>
+        <v>56.95161572994324</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>67.03179410470023</v>
+        <v>67.03179410470021</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>70.22626842610889</v>
+        <v>70.22626842610887</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>73.02128692182214</v>
+        <v>73.02128692182212</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>38.31053924484972</v>
+        <v>38.31053924484971</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>41.24799026535239</v>
+        <v>41.24799026535238</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>52.45004457610499</v>
+        <v>52.45004457610498</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>46.66687377020066</v>
+        <v>46.66687377020065</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>28.58562158315803</v>
+        <v>28.58562158315802</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>18.30301904199767</v>
+        <v>18.30301904199766</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>20.40090945804718</v>
+        <v>20.40090945804717</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>7.593089619365197</v>
+        <v>7.593089619365196</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>52.15169825874774</v>
+        <v>52.15169825874773</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11775,7 +11775,7 @@
         <v>1429</v>
       </c>
       <c r="B1429">
-        <v>55.76174731297819</v>
+        <v>55.76174731297818</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>57.95040182970112</v>
+        <v>57.95040182970111</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>63.02287536685168</v>
+        <v>63.02287536685167</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>63.25733219778076</v>
+        <v>63.25733219778075</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>55.8382388540688</v>
+        <v>55.83823885406879</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>62.87252992401841</v>
+        <v>62.8725299240184</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>66.14496114171099</v>
+        <v>66.14496114171098</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>70.7303506126064</v>
+        <v>70.73035061260639</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>71.5310206902292</v>
+        <v>71.53102069022918</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>82.15689733897359</v>
+        <v>82.15689733897358</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>77.46688150727609</v>
+        <v>77.46688150727607</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>40.49128084352879</v>
+        <v>40.49128084352878</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>41.50765120560634</v>
+        <v>41.50765120560633</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>53.86147469829803</v>
+        <v>53.86147469829802</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>55.54018560775021</v>
+        <v>55.5401856077502</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>54.27177415242391</v>
+        <v>54.2717741524239</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>41.98945999316559</v>
+        <v>41.98945999316558</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>87.64494560894595</v>
+        <v>87.64494560894593</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>61.65745739772847</v>
+        <v>61.65745739772846</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>66.47349377605036</v>
+        <v>66.47349377605035</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>76.0065085216266</v>
+        <v>76.00650852162659</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>77.51787586800316</v>
+        <v>77.51787586800315</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>83.05105707792936</v>
+        <v>83.05105707792934</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>69.23744674166551</v>
+        <v>69.23744674166549</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>58.71180038814329</v>
+        <v>58.71180038814328</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>48.75852177312668</v>
+        <v>48.75852177312667</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>46.02241055618436</v>
+        <v>46.02241055618435</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>61.24979558295054</v>
+        <v>61.24979558295053</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>48.45519324811219</v>
+        <v>48.45519324811218</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>60.89517962617031</v>
+        <v>60.8951796261703</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>47.60939023053555</v>
+        <v>47.60939023053554</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14199,7 +14199,7 @@
         <v>1732</v>
       </c>
       <c r="B1732">
-        <v>50.80415762298287</v>
+        <v>50.80415762298286</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>52.54441345055394</v>
+        <v>52.54441345055393</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>52.83748448921529</v>
+        <v>52.83748448921528</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>43.78012403938641</v>
+        <v>43.7801240393864</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>47.40541278762725</v>
+        <v>47.40541278762724</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>36.56031900196417</v>
+        <v>36.56031900196416</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>34.03785657220597</v>
+        <v>34.03785657220596</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>49.60403171966466</v>
+        <v>49.60403171966465</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>60.78058885005373</v>
+        <v>60.78058885005372</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>58.20537363333649</v>
+        <v>58.20537363333648</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>50.70978874853392</v>
+        <v>50.70978874853391</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>49.8335063429365</v>
+        <v>49.83350634293649</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>42.53193448572774</v>
+        <v>42.53193448572773</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>53.58598792195636</v>
+        <v>53.58598792195635</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>59.67483182118447</v>
+        <v>59.67483182118446</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>47.56865335616162</v>
+        <v>47.56865335616161</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>31.87704380415587</v>
+        <v>31.87704380415586</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>36.80474024820773</v>
+        <v>36.80474024820772</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>32.6190996740464</v>
+        <v>32.61909967404639</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>34.59586382981717</v>
+        <v>34.59586382981716</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>39.67331957462498</v>
+        <v>39.67331957462497</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>39.85707511586564</v>
+        <v>39.85707511586563</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>43.11543892370248</v>
+        <v>43.11543892370247</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>43.4466091973898</v>
+        <v>43.44660919738979</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>45.38029191047736</v>
+        <v>45.38029191047735</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>36.95244805169305</v>
+        <v>36.95244805169304</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>42.37133155654132</v>
+        <v>42.37133155654131</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>59.58339365712213</v>
+        <v>59.58339365712212</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>23.88458628040686</v>
+        <v>23.88458628040685</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>39.85179983716974</v>
+        <v>39.85179983716973</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>42.40708622325801</v>
+        <v>42.407086223258</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>43.25787144849189</v>
+        <v>43.25787144849188</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>51.04623430091714</v>
+        <v>51.04623430091713</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16183,7 +16183,7 @@
         <v>1980</v>
       </c>
       <c r="B1980">
-        <v>41.51790869195949</v>
+        <v>41.51790869195948</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16255,7 +16255,7 @@
         <v>1989</v>
       </c>
       <c r="B1989">
-        <v>36.35370391970792</v>
+        <v>36.35370391970791</v>
       </c>
     </row>
     <row r="1990" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>41.13310641819714</v>
+        <v>41.13310641819713</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>42.57501592841096</v>
+        <v>42.57501592841095</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>39.37526632830639</v>
+        <v>39.37526632830638</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>40.16011056984147</v>
+        <v>40.16011056984146</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>44.11920723111759</v>
+        <v>44.11920723111758</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>42.1447876436561</v>
+        <v>42.14478764365609</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>22.30625220169619</v>
+        <v>22.30625220169618</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>38.9854818468868</v>
+        <v>38.98548184688679</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>38.31815909185492</v>
+        <v>38.31815909185491</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>33.49538207964382</v>
+        <v>33.49538207964381</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>36.38682094707665</v>
+        <v>36.38682094707664</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16823,7 +16823,7 @@
         <v>2060</v>
       </c>
       <c r="B2060">
-        <v>36.66728993107556</v>
+        <v>36.66728993107555</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>40.17036805619462</v>
+        <v>40.17036805619461</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16863,7 +16863,7 @@
         <v>2065</v>
       </c>
       <c r="B2065">
-        <v>40.55985946657555</v>
+        <v>40.55985946657554</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>33.65070973013433</v>
+        <v>33.65070973013432</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>18.06510397281239</v>
+        <v>18.06510397281238</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>32.05845477708724</v>
+        <v>32.05845477708723</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>44.98786978970981</v>
+        <v>44.9878697897098</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>9.871013574464371</v>
+        <v>9.871013574464367</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17615,7 +17615,7 @@
         <v>2159</v>
       </c>
       <c r="B2159">
-        <v>28.96148519024121</v>
+        <v>28.9614851902412</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>48.30983001293616</v>
+        <v>48.30983001293615</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>32.46113438420793</v>
+        <v>32.46113438420792</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>39.8134075311051</v>
+        <v>39.81340753110509</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>38.12209456699048</v>
+        <v>38.12209456699047</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>8.941392239830583</v>
+        <v>8.941392239830581</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>58.56702329504459</v>
+        <v>58.56702329504458</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>63.91732817684611</v>
+        <v>63.9173281768461</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>52.35303806230808</v>
+        <v>52.35303806230807</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19759,7 +19759,7 @@
         <v>2427</v>
       </c>
       <c r="B2427">
-        <v>42.15504513000925</v>
+        <v>42.15504513000924</v>
       </c>
     </row>
     <row r="2428" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>40.2925786793164</v>
+        <v>40.29257867931639</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>30.84895060053187</v>
+        <v>30.84895060053186</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>43.85925321982497</v>
+        <v>43.85925321982496</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>38.81989671004314</v>
+        <v>38.81989671004313</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21511,7 +21511,7 @@
         <v>2646</v>
       </c>
       <c r="B2646">
-        <v>46.51389068801944</v>
+        <v>46.51389068801943</v>
       </c>
     </row>
     <row r="2647" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>29.29286061365559</v>
+        <v>29.29286061365558</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>33.82655235333114</v>
+        <v>33.82655235333113</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>29.89881429319179</v>
+        <v>29.89881429319178</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>32.00482277701222</v>
+        <v>32.00482277701221</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>31.15345140970101</v>
+        <v>31.153451409701</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22079,7 +22079,7 @@
         <v>2717</v>
       </c>
       <c r="B2717">
-        <v>34.54750710843805</v>
+        <v>34.54750710843804</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>23.11934849135822</v>
+        <v>23.11934849135821</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>5.058171670463891</v>
+        <v>5.05817167046389</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>1.688795483892523</v>
+        <v>1.688795483892522</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -54559,7 +54559,7 @@
         <v>6777</v>
       </c>
       <c r="B6777">
-        <v>18.17702780247716</v>
+        <v>18.17702780247715</v>
       </c>
     </row>
     <row r="6778" spans="1:2">
@@ -56479,7 +56479,7 @@
         <v>7017</v>
       </c>
       <c r="B7017">
-        <v>17.33978245922943</v>
+        <v>17.33978245922942</v>
       </c>
     </row>
     <row r="7018" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>53.48692991088883</v>
+        <v>53.48692991088882</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>60.54408052185402</v>
+        <v>60.54408052185401</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>27.45852898267423</v>
+        <v>27.45852898267422</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>21.12552760113736</v>
+        <v>21.12552760113735</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>55.85347854807919</v>
+        <v>55.85347854807918</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>53.87905896061771</v>
+        <v>53.8790589606177</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>57.7821790535095</v>
+        <v>57.78217905350949</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>52.96731495934226</v>
+        <v>52.96731495934225</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>7.800554607633563</v>
+        <v>7.800554607633562</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>7.877251298451237</v>
+        <v>7.877251298451236</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>39.51271664543856</v>
+        <v>39.51271664543855</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60879,7 +60879,7 @@
         <v>7567</v>
       </c>
       <c r="B7567">
-        <v>44.11129431307373</v>
+        <v>44.11129431307372</v>
       </c>
     </row>
     <row r="7568" spans="1:2">
@@ -61047,7 +61047,7 @@
         <v>7588</v>
       </c>
       <c r="B7588">
-        <v>49.16589051686595</v>
+        <v>49.16589051686594</v>
       </c>
     </row>
     <row r="7589" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>28.64652174499186</v>
+        <v>28.64652174499185</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>28.6921822128153</v>
+        <v>28.69218221281529</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>29.4211085001738</v>
+        <v>29.42110850017379</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>29.04920135211255</v>
+        <v>29.04920135211254</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>36.44543515480892</v>
+        <v>36.44543515480891</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>41.19201369696807</v>
+        <v>41.19201369696806</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>29.49379011776181</v>
+        <v>29.4937901177618</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>57.69572309710441</v>
+        <v>57.6957230971044</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>29.99933765945263</v>
+        <v>29.99933765945262</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>34.64422055119629</v>
+        <v>34.64422055119628</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>56.7578957733881</v>
+        <v>56.75789577338809</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>53.81780711353749</v>
+        <v>53.81780711353748</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>45.21968898129094</v>
+        <v>45.21968898129093</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>54.38079657880593</v>
+        <v>54.38079657880592</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>62.52113774866346</v>
+        <v>62.52113774866345</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>58.10572948019163</v>
+        <v>58.10572948019162</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>60.73750740737051</v>
+        <v>60.7375074073705</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>44.36861068501839</v>
+        <v>44.36861068501838</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>58.56936786335388</v>
+        <v>58.56936786335387</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>66.04033478090889</v>
+        <v>66.04033478090888</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>69.38574068722815</v>
+        <v>69.38574068722814</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>69.38046540853225</v>
+        <v>69.38046540853223</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>70.91703686423368</v>
+        <v>70.91703686423367</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>71.57146449356446</v>
+        <v>71.57146449356445</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>75.99449260904149</v>
+        <v>75.99449260904147</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62935,7 +62935,7 @@
         <v>7824</v>
       </c>
       <c r="B7824">
-        <v>64.47592157653463</v>
+        <v>64.47592157653462</v>
       </c>
     </row>
     <row r="7825" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>52.57225519922677</v>
+        <v>52.57225519922676</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>74.3559324318859</v>
+        <v>74.35593243188589</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>84.08764934167453</v>
+        <v>84.08764934167452</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>84.98239522270762</v>
+        <v>84.98239522270761</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>50.18020938167287</v>
+        <v>50.18020938167286</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63367,7 +63367,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>62.45197298353938</v>
+        <v>62.45197298353937</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>62.32712472106965</v>
+        <v>62.32712472106964</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>56.13365446103944</v>
+        <v>56.13365446103943</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>45.44887053352411</v>
+        <v>45.4488705335241</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>33.29931755477938</v>
+        <v>33.29931755477937</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63895,7 +63895,7 @@
         <v>7944</v>
       </c>
       <c r="B7944">
-        <v>57.64707330468662</v>
+        <v>57.64707330468661</v>
       </c>
     </row>
     <row r="7945" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>56.31975457058939</v>
+        <v>56.31975457058938</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>43.47474401710129</v>
+        <v>43.47474401710128</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>50.3657233491455</v>
+        <v>50.36572334914549</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>40.80222921554848</v>
+        <v>40.80222921554847</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>30.84895060053187</v>
+        <v>30.84895060053186</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>46.32515293912153</v>
+        <v>46.32515293912152</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>48.94960409033388</v>
+        <v>48.94960409033387</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>36.00993159135816</v>
+        <v>36.00993159135815</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>3.786214055569785</v>
+        <v>3.786214055569786</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>3.062856117945854</v>
+        <v>3.062856117945853</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>50.23091067136128</v>
+        <v>50.23091067136127</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>33.35793176251165</v>
+        <v>33.35793176251164</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>0.7481664010466154</v>
+        <v>0.7481664010466152</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>7.66380766099418</v>
+        <v>7.663807660994179</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>51.47939329605861</v>
+        <v>51.4793932960586</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>36.15265718718624</v>
+        <v>36.15265718718623</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>31.77241744335377</v>
+        <v>31.77241744335376</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>57.19339933683886</v>
+        <v>57.19339933683885</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66663,7 +66663,7 @@
         <v>8290</v>
       </c>
       <c r="B8290">
-        <v>61.61613438127722</v>
+        <v>61.61613438127721</v>
       </c>
     </row>
     <row r="8291" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>43.40587232301587</v>
+        <v>43.40587232301586</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>44.72527813906925</v>
+        <v>44.72527813906924</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>39.9256537389124</v>
+        <v>39.92565373891239</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>47.93059608890838</v>
+        <v>47.93059608890837</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>42.6057883874704</v>
+        <v>42.60578838747039</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>60.3910974396728</v>
+        <v>60.39109743967279</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>65.61508870381128</v>
+        <v>65.61508870381127</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>66.33106125126095</v>
+        <v>66.33106125126093</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>46.97782214222035</v>
+        <v>46.97782214222034</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>49.98619635407906</v>
+        <v>49.98619635407905</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>49.30099626568883</v>
+        <v>49.30099626568882</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>45.67805208575728</v>
+        <v>45.67805208575727</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>35.80097194079262</v>
+        <v>35.80097194079261</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>44.01487394135415</v>
+        <v>44.01487394135414</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>49.57120776333459</v>
+        <v>49.57120776333458</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>50.69220448621424</v>
+        <v>50.69220448621423</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67783,7 +67783,7 @@
         <v>8430</v>
       </c>
       <c r="B8430">
-        <v>54.00126958373949</v>
+        <v>54.00126958373948</v>
       </c>
     </row>
     <row r="8431" spans="1:2">
@@ -67935,7 +67935,7 @@
         <v>8449</v>
       </c>
       <c r="B8449">
-        <v>52.51129642318521</v>
+        <v>52.5112964231852</v>
       </c>
     </row>
     <row r="8450" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>48.30484780527892</v>
+        <v>48.30484780527891</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>32.24953709429444</v>
+        <v>32.24953709429443</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>33.74244096523533</v>
+        <v>33.74244096523532</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>9.908702510036219</v>
+        <v>9.908702510036218</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>32.86117635198067</v>
+        <v>32.86117635198066</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>53.83333987858654</v>
+        <v>53.83333987858653</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>85.35195780245958</v>
+        <v>85.35195780245957</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68775,7 +68775,7 @@
         <v>8554</v>
       </c>
       <c r="B8554">
-        <v>75.3142747283085</v>
+        <v>75.31427472830849</v>
       </c>
     </row>
     <row r="8555" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>63.078851935236</v>
+        <v>63.07885193523599</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>78.38624535555672</v>
+        <v>78.38624535555671</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>79.80031311709772</v>
+        <v>79.8003131170977</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>67.99423939566408</v>
+        <v>67.99423939566407</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69111,7 +69111,7 @@
         <v>8596</v>
       </c>
       <c r="B8596">
-        <v>70.12955498335064</v>
+        <v>70.12955498335063</v>
       </c>
     </row>
     <row r="8597" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>73.41341597155102</v>
+        <v>73.413415971551</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>80.40374638570142</v>
+        <v>80.40374638570141</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>65.45214120631557</v>
+        <v>65.45214120631556</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>83.63925065252268</v>
+        <v>83.63925065252266</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>89.80487916388006</v>
+        <v>89.80487916388005</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>87.4913763846874</v>
+        <v>87.49137638468738</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>85.19633708093041</v>
+        <v>85.19633708093039</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>71.42844582669773</v>
+        <v>71.42844582669771</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>63.67232078852522</v>
+        <v>63.67232078852521</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>65.56936962178011</v>
+        <v>65.5693696217801</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>67.49015720916657</v>
+        <v>67.49015720916655</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>85.57381257872622</v>
+        <v>85.5738125787262</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>82.53173519742145</v>
+        <v>82.53173519742144</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>48.13428046077802</v>
+        <v>48.13428046077801</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>56.54131627581737</v>
+        <v>56.54131627581736</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>57.49672786185335</v>
+        <v>57.49672786185334</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>55.24740764012753</v>
+        <v>55.24740764012752</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>55.32389918121814</v>
+        <v>55.32389918121813</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69767,7 +69767,7 @@
         <v>8678</v>
       </c>
       <c r="B8678">
-        <v>35.46481945944806</v>
+        <v>35.46481945944805</v>
       </c>
     </row>
     <row r="8679" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>50.36337878083621</v>
+        <v>50.3633787808362</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>39.10271026235134</v>
+        <v>39.10271026235133</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>49.61927141367505</v>
+        <v>49.61927141367504</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70103,7 +70103,7 @@
         <v>8720</v>
       </c>
       <c r="B8720">
-        <v>54.96459408781933</v>
+        <v>54.96459408781932</v>
       </c>
     </row>
     <row r="8721" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>56.83731802486533</v>
+        <v>56.83731802486532</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70183,7 +70183,7 @@
         <v>8730</v>
       </c>
       <c r="B8730">
-        <v>70.4680520330045</v>
+        <v>70.46805203300448</v>
       </c>
     </row>
     <row r="8731" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>76.05017610638714</v>
+        <v>76.05017610638713</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>79.80295075644567</v>
+        <v>79.80295075644565</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>82.43502175466321</v>
+        <v>82.4350217546632</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>83.16037257535004</v>
+        <v>83.16037257535002</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>71.56618921486856</v>
+        <v>71.56618921486854</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
